--- a/Test Documents/TestScenario-OpenCart.xlsx
+++ b/Test Documents/TestScenario-OpenCart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a3e22fe4f38f8cd/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohai\IdeaProjects\OpenCart\Test Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{040E964D-A887-40E8-9DB9-4A623E63D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D19383-42AE-47F4-87FC-A8BBF35B6272}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC69668-C086-4A3B-A90D-B223FDB881BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A13990DD-BD08-4F36-8ED5-49ABBF6800F9}"/>
   </bookViews>
@@ -459,6 +459,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -470,12 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -795,7 +795,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -819,10 +819,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -830,8 +830,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -839,10 +839,10 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -850,10 +850,10 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -861,10 +861,10 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
-        <v>45786</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="B6" s="10">
+        <v>45829</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -872,10 +872,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
-        <v>45792</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="B7" s="10">
+        <v>45832</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
